--- a/biology/Botanique/Phyllophoracée/Phyllophoracée.xlsx
+++ b/biology/Botanique/Phyllophoracée/Phyllophoracée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phyllophorac%C3%A9e</t>
+          <t>Phyllophoracée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phyllophoraceae sont une famille d'algues rouges de l'ordre des Gigartinales. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phyllophorac%C3%A9e</t>
+          <t>Phyllophoracée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (6 mai 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (6 mai 2012) :
 genre Ahnfeltiopsis P.C.Silva &amp; DeCew
 genre Archestenogramma C.W.Schneider, Chengsupanimit &amp; G.W.Saunders
 genre Besa Setchell
@@ -528,7 +542,7 @@
 genre Reingardia Perestenko
 genre Schottera Guiry &amp; Hollenberg
 genre Stenogramme Harvey
-Selon Catalogue of Life                                   (6 mai 2012)[2] :
+Selon Catalogue of Life                                   (6 mai 2012) :
 genre Actinococcus
 genre Ahnfeltiopsis
 genre Besa
@@ -544,7 +558,7 @@
 genre Phyllophora
 genre Schottera
 genre Stenogramme
-Selon ITIS      (6 mai 2012)[3] :
+Selon ITIS      (6 mai 2012) :
 genre Ahnfeltia E. M. Fries, 1835
 genre Ceratocolax Rosenvinge, 1898
 genre Gymnogongrus C. F. P. Martius, 1833
@@ -553,7 +567,7 @@
 genre Phyllophora Greville, 1930
 genre Schottera Guiry &amp; Hollenb.
 genre Stenogramme W. H. Harvey, 1840
-Selon NCBI  (17 janvier 2021)[4] :
+Selon NCBI  (17 janvier 2021) :
 genre Acletoa
 genre Ahnfeltiopsis
 genre Archestenogramma
@@ -571,7 +585,7 @@
 genre Phyllophorella
 genre Schottera
 genre Stenogramma
-Selon World Register of Marine Species                               (17 janvier 2021)[5] :
+Selon World Register of Marine Species                               (17 janvier 2021) :
 genre Acletoa M.S.Calderon &amp; S.M.Boo, 2017
 genre Ahnfeltiopsis P.C. Silva &amp; DeCew, 1992
 genre Archestenogramma C.W.Schneider, Chengsupanimit &amp; G.W.Saunders, 2011
